--- a/SourceCode/2023/August2023/Nagendra/Task 22/Sample.xlsx
+++ b/SourceCode/2023/August2023/Nagendra/Task 22/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI path RPA\RPA-Developer-in-30-Days\SourceCode\2023\August2023\Nagendra\Task 22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0699C8A0-84FF-400B-AD81-437BD0E29678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F7F7B7-32F4-47A5-84E4-5278DE3AFB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <x:si>
     <x:t>Lower Case</x:t>
   </x:si>
@@ -86,18 +86,6 @@
   </x:si>
   <x:si>
     <x:t>SRINIKA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mani</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MANI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aller</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALLER</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -427,10 +415,10 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C11"/>
+  <x:dimension ref="A1:A9"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="I7" sqref="I7"/>
+      <x:selection activeCell="D7" sqref="D7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,7 +427,7 @@
     <x:col min="2" max="2" width="12.570312" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -450,7 +438,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A2" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -461,7 +449,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A3" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -472,7 +460,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A4" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -483,7 +471,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A5" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
@@ -494,7 +482,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A6" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
@@ -505,7 +493,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A7" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -516,7 +504,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A8" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
@@ -527,7 +515,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <x:row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <x:c r="A9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
@@ -535,28 +523,6 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="C10" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <x:c r="A11" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
